--- a/api/org-data/suggest/미래에셋 추천 포트폴리오(국내).xlsx
+++ b/api/org-data/suggest/미래에셋 추천 포트폴리오(국내).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,176 +44,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고배당리츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원자재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성장산업 내 실적배당주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테마 로테이팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고금리상품</t>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>LG화학</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>TIGER Fn반도체TOP10</t>
+  </si>
+  <si>
+    <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NH올원리츠</t>
+    <t>신한알파리츠</t>
+  </si>
+  <si>
+    <t>코람코더원리츠</t>
+  </si>
+  <si>
+    <t>삼성FN리츠</t>
+  </si>
+  <si>
+    <t>TIGER 금속선물</t>
+  </si>
+  <si>
+    <t>TIGER 원유선물 Enhanced(H)</t>
+  </si>
+  <si>
+    <t>TIGER 골드선물(H)</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>HL만도</t>
+  </si>
+  <si>
+    <t>넷마블</t>
+  </si>
+  <si>
+    <t>TIGER 소프트웨어</t>
+  </si>
+  <si>
+    <t>TIGER TOP10</t>
+  </si>
+  <si>
+    <t>TIGER CD금리투자</t>
+  </si>
+  <si>
+    <t>리츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미래에셋글로벌리츠</t>
+    <t>R&amp;D 및 투자확대회사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIGER골드선물(H)</t>
-  </si>
-  <si>
-    <r>
-      <t>TIGER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금속선물</t>
-    </r>
+    <t>채권/채권형 ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>LG화학</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>NAVER</t>
-  </si>
-  <si>
-    <t>에코프로비엠</t>
-  </si>
-  <si>
-    <r>
-      <t>LG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이노텍</t>
-    </r>
+    <t>066570</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>씨에드윈드</t>
-    </r>
+    <t>000660</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JYP Ent</t>
+    <t>096770</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한솔케미칼</t>
-    </r>
+    <t>011070</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아프리카TV</t>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>251270</t>
+  </si>
+  <si>
+    <t>051910</t>
+  </si>
+  <si>
+    <t>005930</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIGER Fn반도체TOP10</t>
-  </si>
-  <si>
-    <r>
-      <t>TIGER KRX2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차전지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>K-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뉴딜</t>
-    </r>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>396500</t>
+  </si>
+  <si>
+    <t>157490</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TIGER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중국소비테마</t>
-    </r>
+    <t>292150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIGER 투자등급회사채액티브</t>
-  </si>
-  <si>
-    <t>코드</t>
+    <t>438330</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,10 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,40 +196,109 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="KoPub돋움체_Pro Medium"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -283,20 +307,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +645,7 @@
     <col min="3" max="3" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,313 +659,351 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E2">
-        <v>400760</v>
+        <f>14%</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>293940</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E3">
-        <v>396690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>14%</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>417310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E4">
-        <v>319640</v>
+        <f>14%</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>448730</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.06</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>139310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
         <v>0.03</v>
       </c>
-      <c r="E6">
-        <v>5930</v>
+      <c r="E6" s="14">
+        <v>130680</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.03</v>
       </c>
-      <c r="E7">
-        <v>51910</v>
+      <c r="E7" s="14">
+        <v>319640</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E8">
-        <v>270</v>
+        <v>0.27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>267250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E9">
-        <v>35420</v>
+        <v>0.27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E10">
-        <v>247540</v>
+        <v>0.27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E11">
-        <v>11070</v>
+        <v>0.27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E12">
-        <v>112610</v>
+        <v>0.27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E13">
-        <v>35900</v>
+        <v>0.27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E14">
-        <v>14680</v>
+        <v>0.27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E15">
-        <v>67160</v>
+        <v>0.27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E16">
-        <v>396500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E17">
-        <v>364980</v>
+        <v>0.27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E18">
-        <v>150460</v>
+        <f>D18*3</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="13">
         <v>0.3</v>
       </c>
-      <c r="E19">
-        <v>438330</v>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -923,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,7 +1029,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,313 +1043,361 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
+        <f>D2*3</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E2">
-        <v>400760</v>
+      <c r="E2" s="14">
+        <v>293940</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
+        <f t="shared" ref="B3:B4" si="0">D3*3</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E3">
-        <v>396690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="14">
+        <v>417310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E4">
-        <v>319640</v>
+        <f t="shared" si="0"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>448730</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.08</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.04</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>139310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
         <v>0.02</v>
       </c>
-      <c r="E6">
-        <v>5930</v>
+      <c r="E6" s="14">
+        <v>130680</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.02</v>
       </c>
-      <c r="E7">
-        <v>51910</v>
+      <c r="E7" s="14">
+        <v>319640</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E8">
-        <v>270</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>267250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E9">
-        <v>35420</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E10">
-        <v>247540</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>11070</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>112610</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>35900</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>14680</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>67160</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E16">
-        <v>396500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E17">
-        <v>364980</v>
+        <f>18%</f>
+        <v>0.18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E18">
-        <v>150460</v>
+        <f>D18*3</f>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>0.11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="E19">
-        <v>438330</v>
+      <c r="D21" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1422,7 @@
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1296,313 +1436,353 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E2">
-        <v>400760</v>
+        <f>D2*3</f>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>293940</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E3">
-        <v>396690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>5%</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>417310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <v>319640</v>
+        <f>5%</f>
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>448730</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.04</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.02</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>139310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
         <v>0.01</v>
       </c>
-      <c r="E6">
-        <v>5930</v>
+      <c r="E6" s="14">
+        <v>130680</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.01</v>
       </c>
-      <c r="E7">
-        <v>51910</v>
+      <c r="E7" s="14">
+        <v>319640</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10">
         <v>0.01</v>
       </c>
-      <c r="E8">
-        <v>270</v>
+      <c r="E8" s="14">
+        <v>267250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10">
         <v>0.01</v>
       </c>
-      <c r="E9">
-        <v>35420</v>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10">
         <v>0.01</v>
       </c>
-      <c r="E10">
-        <v>247540</v>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>0.1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10">
         <v>0.01</v>
       </c>
-      <c r="E11">
-        <v>11070</v>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10">
         <v>0.01</v>
       </c>
-      <c r="E12">
-        <v>112610</v>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>0.1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10">
         <v>0.01</v>
       </c>
-      <c r="E13">
-        <v>35900</v>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.01</v>
       </c>
-      <c r="E14">
-        <v>14680</v>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>0.1</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
         <v>0.01</v>
       </c>
-      <c r="E15">
-        <v>67160</v>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E16">
-        <v>396500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E17">
-        <v>364980</v>
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
+        <f>D18*3</f>
         <v>0.06</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10">
         <v>0.02</v>
       </c>
-      <c r="E18">
-        <v>150460</v>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <f t="shared" ref="B19:B20" si="0">D19*3</f>
+        <v>0.06</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="E19">
-        <v>438330</v>
+      <c r="D21" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/api/org-data/suggest/미래에셋 추천 포트폴리오(국내).xlsx
+++ b/api/org-data/suggest/미래에셋 추천 포트폴리오(국내).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="적극투자형" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,15 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신한알파리츠</t>
-  </si>
-  <si>
-    <t>코람코더원리츠</t>
-  </si>
-  <si>
-    <t>삼성FN리츠</t>
-  </si>
-  <si>
     <t>TIGER 금속선물</t>
   </si>
   <si>
@@ -172,6 +163,30 @@
   </si>
   <si>
     <t>438330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥쿼리인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이알글로벌리츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이리츠코크렙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>088990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>088260</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,56 +679,56 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <f>14%</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="E2" s="14">
-        <v>293940</v>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>14%</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="E3" s="14">
-        <v>417310</v>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <f>14%</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="14">
-        <v>448730</v>
+      <c r="E4" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,7 +739,7 @@
         <v>0.12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10">
         <v>0.06</v>
@@ -741,7 +756,7 @@
         <v>0.12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -758,7 +773,7 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -769,13 +784,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>0.27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11">
         <v>2.7E-2</v>
@@ -786,109 +801,109 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>0.27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>0.27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>0.27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>0.27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>0.27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>0.27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11">
         <v>2.7E-2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>0.27</v>
@@ -900,12 +915,12 @@
         <v>2.7E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>0.27</v>
@@ -917,12 +932,12 @@
         <v>2.7E-2</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>0.27</v>
@@ -934,7 +949,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,7 +967,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -963,13 +978,13 @@
         <v>0.17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -980,30 +995,30 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0.3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="13">
         <v>0.3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1033,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,56 +1063,56 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <f>D2*3</f>
         <v>0.10500000000000001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E2" s="14">
-        <v>293940</v>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">D3*3</f>
         <v>0.10500000000000001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E3" s="14">
-        <v>417310</v>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E4" s="14">
-        <v>448730</v>
+      <c r="E4" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,7 +1123,7 @@
         <v>0.08</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -1125,7 +1140,7 @@
         <v>0.08</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>0.02</v>
@@ -1142,7 +1157,7 @@
         <v>0.08</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>0.02</v>
@@ -1153,14 +1168,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11">
         <v>1.7999999999999999E-2</v>
@@ -1171,115 +1186,115 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <f>18%</f>
         <v>0.18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <f>18%</f>
@@ -1292,12 +1307,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <f>18%</f>
@@ -1310,12 +1325,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <f>18%</f>
@@ -1328,7 +1343,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1361,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,13 +1372,13 @@
         <v>0.11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1374,30 +1389,30 @@
         <v>0.11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1411,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1441,56 +1456,56 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <f>D2*3</f>
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E2" s="14">
-        <v>293940</v>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>5%</f>
         <v>0.05</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E3" s="14">
-        <v>417310</v>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <f>5%</f>
         <v>0.05</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E4" s="14">
-        <v>448730</v>
+      <c r="E4" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1501,7 +1516,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10">
         <v>0.02</v>
@@ -1518,7 +1533,7 @@
         <v>0.04</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>0.01</v>
@@ -1535,7 +1550,7 @@
         <v>0.04</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>0.01</v>
@@ -1546,13 +1561,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>0.1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10">
         <v>0.01</v>
@@ -1563,109 +1578,109 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10">
         <v>0.01</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10">
         <v>0.01</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>0.1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10">
         <v>0.01</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10">
         <v>0.01</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>0.1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>0.1</v>
@@ -1677,12 +1692,12 @@
         <v>0.01</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -1694,12 +1709,12 @@
         <v>0.01</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>0.1</v>
@@ -1711,7 +1726,7 @@
         <v>0.01</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1729,7 +1744,7 @@
         <v>0.02</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,13 +1756,13 @@
         <v>0.06</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="10">
         <v>0.02</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1759,34 +1774,35 @@
         <v>0.06</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13">
         <v>0.02</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>0.75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="13">
         <v>0.75</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>